--- a/Data/Screeners/FD2022-01.xlsx
+++ b/Data/Screeners/FD2022-01.xlsx
@@ -1,68 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondrej.finke\GIT\stocksandloss\Data\Screeners\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="0" windowWidth="27675" windowHeight="12885"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2250" yWindow="0" windowWidth="27675" windowHeight="12885" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2022-01-01" sheetId="2" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-01" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-04" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-05" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Tickers</t>
-  </si>
-  <si>
-    <t> HIMX </t>
-  </si>
-  <si>
-    <t> SIMO </t>
-  </si>
-  <si>
-    <t> ACLS </t>
-  </si>
-  <si>
-    <t> DG </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -85,29 +66,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -395,48 +444,506 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIMX </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DG </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSM </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NSIT </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COHR </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FORM </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ON </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IIVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCB </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MLM </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ONTO </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSM </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IIVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NSIT </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANG </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WAB </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DEA </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JKHY </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SMCI </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ON </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MLM </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASGN </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCB </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATO </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> G </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MKSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LRCX </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FDX </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FCN </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WDC </t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Data/Screeners/FD2022-01.xlsx
+++ b/Data/Screeners/FD2022-01.xlsx
@@ -9,6 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-01" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-04" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-05" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-06" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-07" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -949,4 +951,316 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ESTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JKHY </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WDC </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MU </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FCN </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DEA </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SMCI </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WAB </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NSIT </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANG </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIN </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MKSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COHR </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IIVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KDP </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MNST </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ESTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FCN </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANG </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KDP </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Data/Screeners/FD2022-01.xlsx
+++ b/Data/Screeners/FD2022-01.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-05" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-06" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-07" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-08" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1263,4 +1264,100 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ESTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BGS </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DG </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SACH </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Data/Screeners/FD2022-01.xlsx
+++ b/Data/Screeners/FD2022-01.xlsx
@@ -12,6 +12,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-06" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-07" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-08" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-11" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-12" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-13" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-14" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -512,6 +516,132 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KBH </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSM </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CBZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KLAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMAT </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PHM </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KDP </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PECO </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCB </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MKSI </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1360,4 +1490,382 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IRTC </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GBCI </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDX </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IBN </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IRTC </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ESTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KDP </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQT </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANG </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDX </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CI </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SACH </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ESTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INFY </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KDP </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PECO </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IRTC </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANG </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GBCI </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BGS </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCB </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQT </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDX </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Data/Screeners/FD2022-01.xlsx
+++ b/Data/Screeners/FD2022-01.xlsx
@@ -16,6 +16,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-12" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-13" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-14" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-15" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -642,6 +643,112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CBZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KBH </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ONTO </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMAT </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KDP </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PCRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VRTX </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Data/Screeners/FD2022-01.xlsx
+++ b/Data/Screeners/FD2022-01.xlsx
@@ -17,6 +17,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-13" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-14" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-15" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-19" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-20" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-21" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -749,6 +752,194 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ESTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PCRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANG </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDX </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDX </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Data/Screeners/FD2022-01.xlsx
+++ b/Data/Screeners/FD2022-01.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-19" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-20" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-21" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-22" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -940,6 +941,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDSI </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Data/Screeners/FD2022-01.xlsx
+++ b/Data/Screeners/FD2022-01.xlsx
@@ -21,6 +21,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-20" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-21" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-22" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-25" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-26" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-261" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -977,6 +980,174 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CDEV </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CDEV </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Data/Screeners/FD2022-01.xlsx
+++ b/Data/Screeners/FD2022-01.xlsx
@@ -24,6 +24,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-25" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-26" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-261" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-27" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-28" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-31" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1148,6 +1151,92 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CDEV </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDSI </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1286,6 +1375,128 @@
       <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve"> ONTO </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> V </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VRTX </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
         </is>
       </c>
     </row>
